--- a/csse_covid_19_data/csse_covid_19_daily_reports_us/Dataset_JHU_Dashboard.xlsx
+++ b/csse_covid_19_data/csse_covid_19_daily_reports_us/Dataset_JHU_Dashboard.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chadr\Desktop\COVID-19_Data\csse_covid_19_data\csse_covid_19_daily_reports_us\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF3688D-FFFD-4000-9A5E-D7871BA58A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6613B7E-B8BF-4FED-90E9-FF1DD9C5EB63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5CC0BCBB-6793-411B-A096-7450FE4F2B61}"/>
   </bookViews>
@@ -800,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF4A210-DCBD-470F-B1DE-917FB405996D}">
   <dimension ref="A1:BN57"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:BN57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -53323,7 +53323,7 @@
   <dimension ref="A1:BN57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B2" sqref="B2:BN57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
